--- a/courses/docker-for-java-developers/docker-for-java-developers-log.xlsx
+++ b/courses/docker-for-java-developers/docker-for-java-developers-log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arana/Dropbox/personal-projects/education/programming/virtualization/docker/courses/docker-for-java-developers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB62C7B-3BA4-0B44-B177-E90513DC470C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A178266C-502D-3943-89D3-5E3E37762209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{380B1456-870C-384E-86DE-B9397A48AD32}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +615,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43957</v>
+      </c>
       <c r="B14" s="2">
         <v>0.42708333333333331</v>
       </c>
@@ -628,11 +630,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>0.375</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
